--- a/Django-site/mysite/entities/static/entities/Column Display Instructions.xlsx
+++ b/Django-site/mysite/entities/static/entities/Column Display Instructions.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Pokemon" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pokemon!$A$1:$K$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pokemon!$A$1:$L$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Trainer!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="204">
   <si>
     <t>TrainerId</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>Quick ATK?</t>
+  </si>
+  <si>
+    <t>DataType</t>
   </si>
 </sst>
 </file>
@@ -2109,11 +2112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,13 +2128,14 @@
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="224" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="224" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2158,16 +2161,19 @@
         <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-99</v>
       </c>
@@ -2192,12 +2198,15 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="str">
-        <f t="shared" ref="K2:K33" si="0">"{'AppearenceOrder':'"&amp;A2&amp;"','RowNumber':'"&amp;B2&amp;"','ColumnName':'"&amp;C2&amp;"','DBColumnName':'"&amp;D2&amp;"','ColumnDisplayName':'"&amp;E2&amp;"','InputType':'"&amp;F2&amp;"','ColumnWidth':'"&amp;G2&amp;"','AllowEditing':'"&amp;H2&amp;"','Notes':'"&amp;I2&amp;"','OverrideValue':'"&amp;J2&amp;"'},"</f>
-        <v>{'AppearenceOrder':'-99','RowNumber':'-1','ColumnName':'PokemonNickName','DBColumnName':'PokemonNickName','ColumnDisplayName':'NickName','InputType':'text','ColumnWidth':'0','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>"{'AppearenceOrder':'"&amp;A2&amp;"','RowNumber':'"&amp;B2&amp;"','ColumnName':'"&amp;C2&amp;"','DBColumnName':'"&amp;D2&amp;"','ColumnDisplayName':'"&amp;E2&amp;"','InputType':'"&amp;F2&amp;"','ColumnWidth':'"&amp;G2&amp;"','AllowEditing':'"&amp;H2&amp;"', 'DataType':'"&amp;I2&amp;"' , 'Notes':'"&amp;J2&amp;"','OverrideValue':'"&amp;K2&amp;"'},"</f>
+        <v>{'AppearenceOrder':'-99','RowNumber':'-1','ColumnName':'PokemonNickName','DBColumnName':'PokemonNickName','ColumnDisplayName':'NickName','InputType':'text','ColumnWidth':'0','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -2222,12 +2231,15 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'10','RowNumber':'1','ColumnName':'PokemonId','DBColumnName':'PokemonId','ColumnDisplayName':'Id','InputType':'number','ColumnWidth':'1','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L66" si="0">"{'AppearenceOrder':'"&amp;A3&amp;"','RowNumber':'"&amp;B3&amp;"','ColumnName':'"&amp;C3&amp;"','DBColumnName':'"&amp;D3&amp;"','ColumnDisplayName':'"&amp;E3&amp;"','InputType':'"&amp;F3&amp;"','ColumnWidth':'"&amp;G3&amp;"','AllowEditing':'"&amp;H3&amp;"', 'DataType':'"&amp;I3&amp;"' , 'Notes':'"&amp;J3&amp;"','OverrideValue':'"&amp;K3&amp;"'},"</f>
+        <v>{'AppearenceOrder':'10','RowNumber':'1','ColumnName':'PokemonId','DBColumnName':'PokemonId','ColumnDisplayName':'Id','InputType':'number','ColumnWidth':'1','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -2252,12 +2264,15 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'20','RowNumber':'1','ColumnName':'OwnerName','DBColumnName':'OwnerName','ColumnDisplayName':'Owner Name','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'20','RowNumber':'1','ColumnName':'OwnerName','DBColumnName':'OwnerName','ColumnDisplayName':'Owner Name','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -2282,12 +2297,15 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'30','RowNumber':'1','ColumnName':'Species','DBColumnName':'Species','ColumnDisplayName':'Species','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'30','RowNumber':'1','ColumnName':'Species','DBColumnName':'Species','ColumnDisplayName':'Species','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'1' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40</v>
       </c>
@@ -2312,12 +2330,15 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'40','RowNumber':'1','ColumnName':'Type1','DBColumnName':'Type1','ColumnDisplayName':'Type1','InputType':'text','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'40','RowNumber':'1','ColumnName':'Type1','DBColumnName':'Type1','ColumnDisplayName':'Type1','InputType':'text','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -2342,12 +2363,15 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'50','RowNumber':'1','ColumnName':'Type2','DBColumnName':'Type2','ColumnDisplayName':'Type2','InputType':'text','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'50','RowNumber':'1','ColumnName':'Type2','DBColumnName':'Type2','ColumnDisplayName':'Type2','InputType':'text','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>60</v>
       </c>
@@ -2372,12 +2396,15 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'60','RowNumber':'1','ColumnName':'Gender','DBColumnName':'Gender','ColumnDisplayName':'Gender','InputType':'text','ColumnWidth':'1','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'60','RowNumber':'1','ColumnName':'Gender','DBColumnName':'Gender','ColumnDisplayName':'Gender','InputType':'text','ColumnWidth':'1','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -2402,12 +2429,15 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'70','RowNumber':'1','ColumnName':'Nature','DBColumnName':'Nature','ColumnDisplayName':'Nature','InputType':'text','ColumnWidth':'1','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'70','RowNumber':'1','ColumnName':'Nature','DBColumnName':'Nature','ColumnDisplayName':'Nature','InputType':'text','ColumnWidth':'1','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>80</v>
       </c>
@@ -2432,12 +2462,15 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'80','RowNumber':'1','ColumnName':'IsShiny','DBColumnName':'IsShiny','ColumnDisplayName':'Shiny?','InputType':'text','ColumnWidth':'1','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'80','RowNumber':'1','ColumnName':'IsShiny','DBColumnName':'IsShiny','ColumnDisplayName':'Shiny?','InputType':'text','ColumnWidth':'1','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>90</v>
       </c>
@@ -2462,12 +2495,15 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'90','RowNumber':'2','ColumnName':'StartingLevel','DBColumnName':'StartingLevel','ColumnDisplayName':'Starting Level','InputType':'number','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'90','RowNumber':'2','ColumnName':'StartingLevel','DBColumnName':'StartingLevel','ColumnDisplayName':'Starting Level','InputType':'number','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -2492,12 +2528,15 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'100','RowNumber':'2','ColumnName':'CurrentLevel','DBColumnName':'CurrentLevel','ColumnDisplayName':'Current Level','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'100','RowNumber':'2','ColumnName':'CurrentLevel','DBColumnName':'CurrentLevel','ColumnDisplayName':'Current Level','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
@@ -2522,12 +2561,15 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'110','RowNumber':'2','ColumnName':'BattleXP','DBColumnName':'BattleXP','ColumnDisplayName':'Battle XP','InputType':'number','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'110','RowNumber':'2','ColumnName':'BattleXP','DBColumnName':'BattleXP','ColumnDisplayName':'Battle XP','InputType':'number','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>120</v>
       </c>
@@ -2552,12 +2594,15 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'120','RowNumber':'2','ColumnName':'TotalXP','DBColumnName':'TotalXP','ColumnDisplayName':'Total XP','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'120','RowNumber':'2','ColumnName':'TotalXP','DBColumnName':'TotalXP','ColumnDisplayName':'Total XP','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>130</v>
       </c>
@@ -2582,12 +2627,15 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'130','RowNumber':'2','ColumnName':'XPForNextlvl','DBColumnName':'XPForNextlvl','ColumnDisplayName':'XP To Next Level','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'130','RowNumber':'2','ColumnName':'XPForNextlvl','DBColumnName':'XPForNextlvl','ColumnDisplayName':'XP To Next Level','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>140</v>
       </c>
@@ -2612,12 +2660,15 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'140','RowNumber':'2','ColumnName':'IsOnBelt','DBColumnName':'IsOnBelt','ColumnDisplayName':'On Belt?','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'140','RowNumber':'2','ColumnName':'IsOnBelt','DBColumnName':'IsOnBelt','ColumnDisplayName':'On Belt?','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>170</v>
       </c>
@@ -2642,12 +2693,15 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'170','RowNumber':'3','ColumnName':'Move1','DBColumnName':'Move1','ColumnDisplayName':'Move1','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'170','RowNumber':'3','ColumnName':'Move1','DBColumnName':'Move1','ColumnDisplayName':'Move1','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>180</v>
       </c>
@@ -2672,12 +2726,15 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'180','RowNumber':'3','ColumnName':'Move2','DBColumnName':'Move2','ColumnDisplayName':'Move2','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'180','RowNumber':'3','ColumnName':'Move2','DBColumnName':'Move2','ColumnDisplayName':'Move2','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>190</v>
       </c>
@@ -2702,12 +2759,15 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'190','RowNumber':'3','ColumnName':'Move3','DBColumnName':'Move3','ColumnDisplayName':'Move3','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'190','RowNumber':'3','ColumnName':'Move3','DBColumnName':'Move3','ColumnDisplayName':'Move3','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -2732,12 +2792,15 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'200','RowNumber':'3','ColumnName':'Move4','DBColumnName':'Move4','ColumnDisplayName':'Move4','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'200','RowNumber':'3','ColumnName':'Move4','DBColumnName':'Move4','ColumnDisplayName':'Move4','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>220</v>
       </c>
@@ -2762,12 +2825,15 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'220','RowNumber':'3','ColumnName':'HasQuickAttack','DBColumnName':'HasQuickAttack','ColumnDisplayName':'Quick ATK?','InputType':'text','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'220','RowNumber':'3','ColumnName':'HasQuickAttack','DBColumnName':'HasQuickAttack','ColumnDisplayName':'Quick ATK?','InputType':'text','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>150</v>
       </c>
@@ -2792,12 +2858,15 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'150','RowNumber':'4','ColumnName':'TotalHealth','DBColumnName':'TotalHealth','ColumnDisplayName':'Max HP','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'150','RowNumber':'4','ColumnName':'TotalHealth','DBColumnName':'TotalHealth','ColumnDisplayName':'Max HP','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>160</v>
       </c>
@@ -2822,12 +2891,15 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'160','RowNumber':'4','ColumnName':'CurrentHealth','DBColumnName':'CurrentHealth','ColumnDisplayName':'Current HP','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'160','RowNumber':'4','ColumnName':'CurrentHealth','DBColumnName':'CurrentHealth','ColumnDisplayName':'Current HP','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>210</v>
       </c>
@@ -2852,12 +2924,15 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'210','RowNumber':'4','ColumnName':'HealthDescription','DBColumnName':'HealthDescription','ColumnDisplayName':'Health Description','InputType':'text','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'210','RowNumber':'4','ColumnName':'HealthDescription','DBColumnName':'HealthDescription','ColumnDisplayName':'Health Description','InputType':'text','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>230</v>
       </c>
@@ -2882,12 +2957,15 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="K25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'230','RowNumber':'4','ColumnName':'CreateDate','DBColumnName':'CreateDate','ColumnDisplayName':'Create Date','InputType':'text','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'230','RowNumber':'4','ColumnName':'CreateDate','DBColumnName':'CreateDate','ColumnDisplayName':'Create Date','InputType':'text','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>240</v>
       </c>
@@ -2912,12 +2990,15 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'240','RowNumber':'4','ColumnName':'UpdateDate','DBColumnName':'UpdateDate','ColumnDisplayName':'Update Date','InputType':'text','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'240','RowNumber':'4','ColumnName':'UpdateDate','DBColumnName':'UpdateDate','ColumnDisplayName':'Update Date','InputType':'text','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>250</v>
       </c>
@@ -2942,12 +3023,15 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="K27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'250','RowNumber':'4','ColumnName':'EnemiesFought','DBColumnName':'EnemiesFought','ColumnDisplayName':'Enemies Fought','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'250','RowNumber':'4','ColumnName':'EnemiesFought','DBColumnName':'EnemiesFought','ColumnDisplayName':'Enemies Fought','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>260</v>
       </c>
@@ -2972,12 +3056,15 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'260','RowNumber':'4','ColumnName':'EnemiesDefeated','DBColumnName':'EnemiesDefeated','ColumnDisplayName':'Enemies Defeated','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'260','RowNumber':'4','ColumnName':'EnemiesDefeated','DBColumnName':'EnemiesDefeated','ColumnDisplayName':'Enemies Defeated','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>270</v>
       </c>
@@ -3002,12 +3089,15 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'270','RowNumber':'6','ColumnName':'Effect1','DBColumnName':'Effect1','ColumnDisplayName':'Effect One','InputType':'text','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'270','RowNumber':'6','ColumnName':'Effect1','DBColumnName':'Effect1','ColumnDisplayName':'Effect One','InputType':'text','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>280</v>
       </c>
@@ -3032,12 +3122,15 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'280','RowNumber':'6','ColumnName':'Effect1Length','DBColumnName':'Effect1Length','ColumnDisplayName':'Effect One Duration','InputType':'text','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'280','RowNumber':'6','ColumnName':'Effect1Length','DBColumnName':'Effect1Length','ColumnDisplayName':'Effect One Duration','InputType':'text','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>290</v>
       </c>
@@ -3062,12 +3155,15 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'290','RowNumber':'6','ColumnName':'Effect2','DBColumnName':'Effect2','ColumnDisplayName':'Effect Two','InputType':'text','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'290','RowNumber':'6','ColumnName':'Effect2','DBColumnName':'Effect2','ColumnDisplayName':'Effect Two','InputType':'text','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>300</v>
       </c>
@@ -3092,12 +3188,15 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'300','RowNumber':'6','ColumnName':'Effect2Length','DBColumnName':'Effect2Length','ColumnDisplayName':'Effect Two Duration','InputType':'text','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'300','RowNumber':'6','ColumnName':'Effect2Length','DBColumnName':'Effect2Length','ColumnDisplayName':'Effect Two Duration','InputType':'text','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
@@ -3122,12 +3221,15 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{'AppearenceOrder':'310','RowNumber':'7','ColumnName':'SpeciesHP','DBColumnName':'SpeciesHP','ColumnDisplayName':'Basic HP','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'310','RowNumber':'7','ColumnName':'SpeciesHP','DBColumnName':'SpeciesHP','ColumnDisplayName':'Basic HP','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>320</v>
       </c>
@@ -3152,12 +3254,15 @@
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="1" t="str">
-        <f t="shared" ref="K34:K66" si="1">"{'AppearenceOrder':'"&amp;A34&amp;"','RowNumber':'"&amp;B34&amp;"','ColumnName':'"&amp;C34&amp;"','DBColumnName':'"&amp;D34&amp;"','ColumnDisplayName':'"&amp;E34&amp;"','InputType':'"&amp;F34&amp;"','ColumnWidth':'"&amp;G34&amp;"','AllowEditing':'"&amp;H34&amp;"','Notes':'"&amp;I34&amp;"','OverrideValue':'"&amp;J34&amp;"'},"</f>
-        <v>{'AppearenceOrder':'320','RowNumber':'7','ColumnName':'HPAdd','DBColumnName':'HPAdd','ColumnDisplayName':'HP Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'320','RowNumber':'7','ColumnName':'HPAdd','DBColumnName':'HPAdd','ColumnDisplayName':'HP Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>330</v>
       </c>
@@ -3182,12 +3287,15 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'330','RowNumber':'7','ColumnName':'HPStage','DBColumnName':'HPStage','ColumnDisplayName':'HP Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'330','RowNumber':'7','ColumnName':'HPStage','DBColumnName':'HPStage','ColumnDisplayName':'HP Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>340</v>
       </c>
@@ -3212,12 +3320,15 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'340','RowNumber':'7','ColumnName':'HPTotal','DBColumnName':'HPTotal','ColumnDisplayName':'HP Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'340','RowNumber':'7','ColumnName':'HPTotal','DBColumnName':'HPTotal','ColumnDisplayName':'HP Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>350</v>
       </c>
@@ -3242,12 +3353,15 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'350','RowNumber':'7','ColumnName':'TotalHealth','DBColumnName':'TotalHealth','ColumnDisplayName':'Health','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'350','RowNumber':'7','ColumnName':'TotalHealth','DBColumnName':'TotalHealth','ColumnDisplayName':'Health','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>360</v>
       </c>
@@ -3272,12 +3386,15 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-      <c r="K38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'360','RowNumber':'8','ColumnName':'SpeciesATK','DBColumnName':'SpeciesATK','ColumnDisplayName':'Basic ATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'360','RowNumber':'8','ColumnName':'SpeciesATK','DBColumnName':'SpeciesATK','ColumnDisplayName':'Basic ATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>370</v>
       </c>
@@ -3302,12 +3419,15 @@
       <c r="H39" s="1">
         <v>1</v>
       </c>
-      <c r="K39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'370','RowNumber':'8','ColumnName':'ATKAdd','DBColumnName':'ATKAdd','ColumnDisplayName':'ATK Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'370','RowNumber':'8','ColumnName':'ATKAdd','DBColumnName':'ATKAdd','ColumnDisplayName':'ATK Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>380</v>
       </c>
@@ -3332,12 +3452,15 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'380','RowNumber':'8','ColumnName':'ATKStage','DBColumnName':'ATKStage','ColumnDisplayName':'ATK Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'380','RowNumber':'8','ColumnName':'ATKStage','DBColumnName':'ATKStage','ColumnDisplayName':'ATK Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>390</v>
       </c>
@@ -3362,12 +3485,15 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'390','RowNumber':'8','ColumnName':'ATKTotal','DBColumnName':'ATKTotal','ColumnDisplayName':'ATK Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'390','RowNumber':'8','ColumnName':'ATKTotal','DBColumnName':'ATKTotal','ColumnDisplayName':'ATK Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>400</v>
       </c>
@@ -3392,12 +3518,15 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'400','RowNumber':'8','ColumnName':'ATKTotal','DBColumnName':'ATKTotal','ColumnDisplayName':'Bonus ATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'400','RowNumber':'8','ColumnName':'ATKTotal','DBColumnName':'ATKTotal','ColumnDisplayName':'Bonus ATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>410</v>
       </c>
@@ -3422,12 +3551,15 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'410','RowNumber':'9','ColumnName':'SpeciesDEF','DBColumnName':'SpeciesDEF','ColumnDisplayName':'Basic DEF','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'410','RowNumber':'9','ColumnName':'SpeciesDEF','DBColumnName':'SpeciesDEF','ColumnDisplayName':'Basic DEF','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>420</v>
       </c>
@@ -3452,12 +3584,15 @@
       <c r="H44" s="1">
         <v>1</v>
       </c>
-      <c r="K44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'420','RowNumber':'9','ColumnName':'DEFAdd','DBColumnName':'DEFAdd','ColumnDisplayName':'DEF Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'420','RowNumber':'9','ColumnName':'DEFAdd','DBColumnName':'DEFAdd','ColumnDisplayName':'DEF Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>430</v>
       </c>
@@ -3482,12 +3617,15 @@
       <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'430','RowNumber':'9','ColumnName':'DEFStage','DBColumnName':'DEFStage','ColumnDisplayName':'DEF Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'430','RowNumber':'9','ColumnName':'DEFStage','DBColumnName':'DEFStage','ColumnDisplayName':'DEF Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>440</v>
       </c>
@@ -3512,12 +3650,15 @@
       <c r="H46" s="1">
         <v>0</v>
       </c>
-      <c r="K46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'440','RowNumber':'9','ColumnName':'DEFTotal','DBColumnName':'DEFTotal','ColumnDisplayName':'DEF Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'440','RowNumber':'9','ColumnName':'DEFTotal','DBColumnName':'DEFTotal','ColumnDisplayName':'DEF Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>450</v>
       </c>
@@ -3542,12 +3683,15 @@
       <c r="H47" s="1">
         <v>0</v>
       </c>
-      <c r="K47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'450','RowNumber':'9','ColumnName':'EvasionsToAtk','DBColumnName':'EvasionsToAtk','ColumnDisplayName':'EvasionsToAtk','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'450','RowNumber':'9','ColumnName':'EvasionsToAtk','DBColumnName':'EvasionsToAtk','ColumnDisplayName':'EvasionsToAtk','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>460</v>
       </c>
@@ -3572,12 +3716,15 @@
       <c r="H48" s="1">
         <v>0</v>
       </c>
-      <c r="K48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'460','RowNumber':'10','ColumnName':'SpeciesSATK','DBColumnName':'SpeciesSATK','ColumnDisplayName':'Basic SATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'460','RowNumber':'10','ColumnName':'SpeciesSATK','DBColumnName':'SpeciesSATK','ColumnDisplayName':'Basic SATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>470</v>
       </c>
@@ -3602,12 +3749,15 @@
       <c r="H49" s="1">
         <v>1</v>
       </c>
-      <c r="K49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'470','RowNumber':'10','ColumnName':'SATKAdd','DBColumnName':'SATKAdd','ColumnDisplayName':'SATK Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'470','RowNumber':'10','ColumnName':'SATKAdd','DBColumnName':'SATKAdd','ColumnDisplayName':'SATK Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>480</v>
       </c>
@@ -3632,12 +3782,15 @@
       <c r="H50" s="1">
         <v>0</v>
       </c>
-      <c r="K50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'480','RowNumber':'10','ColumnName':'SATKStage','DBColumnName':'SATKStage','ColumnDisplayName':'SATK Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'480','RowNumber':'10','ColumnName':'SATKStage','DBColumnName':'SATKStage','ColumnDisplayName':'SATK Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>490</v>
       </c>
@@ -3662,12 +3815,15 @@
       <c r="H51" s="1">
         <v>0</v>
       </c>
-      <c r="K51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'490','RowNumber':'10','ColumnName':'SATKTotal','DBColumnName':'SATKTotal','ColumnDisplayName':'SATK Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'490','RowNumber':'10','ColumnName':'SATKTotal','DBColumnName':'SATKTotal','ColumnDisplayName':'SATK Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>500</v>
       </c>
@@ -3692,12 +3848,15 @@
       <c r="H52" s="1">
         <v>0</v>
       </c>
-      <c r="K52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'500','RowNumber':'10','ColumnName':'SATKTotal','DBColumnName':'SATKTotal','ColumnDisplayName':'Bonus SATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'500','RowNumber':'10','ColumnName':'SATKTotal','DBColumnName':'SATKTotal','ColumnDisplayName':'Bonus SATK','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>510</v>
       </c>
@@ -3722,12 +3881,15 @@
       <c r="H53" s="1">
         <v>0</v>
       </c>
-      <c r="K53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'510','RowNumber':'11','ColumnName':'SpeciesSDEF','DBColumnName':'SpeciesSDEF','ColumnDisplayName':'Basic SDEF','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'510','RowNumber':'11','ColumnName':'SpeciesSDEF','DBColumnName':'SpeciesSDEF','ColumnDisplayName':'Basic SDEF','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>520</v>
       </c>
@@ -3752,12 +3914,15 @@
       <c r="H54" s="1">
         <v>1</v>
       </c>
-      <c r="K54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'520','RowNumber':'11','ColumnName':'SDEFAdd','DBColumnName':'SDEFAdd','ColumnDisplayName':'SDEF Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'520','RowNumber':'11','ColumnName':'SDEFAdd','DBColumnName':'SDEFAdd','ColumnDisplayName':'SDEF Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>530</v>
       </c>
@@ -3782,12 +3947,15 @@
       <c r="H55" s="1">
         <v>0</v>
       </c>
-      <c r="K55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'530','RowNumber':'11','ColumnName':'SDEFStage','DBColumnName':'SDEFStage','ColumnDisplayName':'SDEF Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'530','RowNumber':'11','ColumnName':'SDEFStage','DBColumnName':'SDEFStage','ColumnDisplayName':'SDEF Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>540</v>
       </c>
@@ -3812,12 +3980,15 @@
       <c r="H56" s="1">
         <v>0</v>
       </c>
-      <c r="K56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'540','RowNumber':'11','ColumnName':'SDEFTotal','DBColumnName':'SDEFTotal','ColumnDisplayName':'SDEF Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'540','RowNumber':'11','ColumnName':'SDEFTotal','DBColumnName':'SDEFTotal','ColumnDisplayName':'SDEF Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>550</v>
       </c>
@@ -3842,12 +4013,15 @@
       <c r="H57" s="1">
         <v>0</v>
       </c>
-      <c r="K57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'550','RowNumber':'11','ColumnName':'EvasionsToSpcial','DBColumnName':'EvasionsToSpcial','ColumnDisplayName':'EvasionsToSpcial','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'550','RowNumber':'11','ColumnName':'EvasionsToSpcial','DBColumnName':'EvasionsToSpcial','ColumnDisplayName':'EvasionsToSpcial','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>560</v>
       </c>
@@ -3872,12 +4046,15 @@
       <c r="H58" s="1">
         <v>0</v>
       </c>
-      <c r="K58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'560','RowNumber':'12','ColumnName':'SpeciesSPD','DBColumnName':'SpeciesSPD','ColumnDisplayName':'Basic SPD','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'560','RowNumber':'12','ColumnName':'SpeciesSPD','DBColumnName':'SpeciesSPD','ColumnDisplayName':'Basic SPD','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>570</v>
       </c>
@@ -3902,12 +4079,15 @@
       <c r="H59" s="1">
         <v>1</v>
       </c>
-      <c r="K59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'570','RowNumber':'12','ColumnName':'SPDAdd','DBColumnName':'SPDAdd','ColumnDisplayName':'SPD Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'570','RowNumber':'12','ColumnName':'SPDAdd','DBColumnName':'SPDAdd','ColumnDisplayName':'SPD Add','InputType':'number','ColumnWidth':'3','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>580</v>
       </c>
@@ -3932,12 +4112,15 @@
       <c r="H60" s="1">
         <v>0</v>
       </c>
-      <c r="K60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'580','RowNumber':'12','ColumnName':'SPDStage','DBColumnName':'SPDStage','ColumnDisplayName':'SPD Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'580','RowNumber':'12','ColumnName':'SPDStage','DBColumnName':'SPDStage','ColumnDisplayName':'SPD Stage','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>590</v>
       </c>
@@ -3962,12 +4145,15 @@
       <c r="H61" s="1">
         <v>0</v>
       </c>
-      <c r="K61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'590','RowNumber':'12','ColumnName':'SPDTotal','DBColumnName':'SPDTotal','ColumnDisplayName':'SPD Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'590','RowNumber':'12','ColumnName':'SPDTotal','DBColumnName':'SPDTotal','ColumnDisplayName':'SPD Total','InputType':'number','ColumnWidth':'3','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>600</v>
       </c>
@@ -3992,12 +4178,15 @@
       <c r="H62" s="1">
         <v>0</v>
       </c>
-      <c r="K62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'600','RowNumber':'12','ColumnName':'EvasionsToAny','DBColumnName':'EvasionsToAny','ColumnDisplayName':'EvasionsToAny','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'600','RowNumber':'12','ColumnName':'EvasionsToAny','DBColumnName':'EvasionsToAny','ColumnDisplayName':'EvasionsToAny','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>610</v>
       </c>
@@ -4022,12 +4211,15 @@
       <c r="H63" s="1">
         <v>1</v>
       </c>
-      <c r="K63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'610','RowNumber':'5','ColumnName':'HeldItem','DBColumnName':'HeldItem','ColumnDisplayName':'Held Item','InputType':'text','ColumnWidth':'2','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'610','RowNumber':'5','ColumnName':'HeldItem','DBColumnName':'HeldItem','ColumnDisplayName':'Held Item','InputType':'text','ColumnWidth':'2','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>615</v>
       </c>
@@ -4052,12 +4244,15 @@
       <c r="H64" s="1">
         <v>0</v>
       </c>
-      <c r="K64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'615','RowNumber':'5','ColumnName':'PointsLeft','DBColumnName':'PointsLeft','ColumnDisplayName':'Points Left','InputType':'number','ColumnWidth':'2','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'615','RowNumber':'5','ColumnName':'PointsLeft','DBColumnName':'PointsLeft','ColumnDisplayName':'Points Left','InputType':'number','ColumnWidth':'2','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>620</v>
       </c>
@@ -4082,12 +4277,15 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-      <c r="K65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'620','RowNumber':'5','ColumnName':'LastActionDescription','DBColumnName':'LastActionDescription','ColumnDisplayName':'LastActionDescription','InputType':'text','ColumnWidth':'4','AllowEditing':'0','Notes':'','OverrideValue':''},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'620','RowNumber':'5','ColumnName':'LastActionDescription','DBColumnName':'LastActionDescription','ColumnDisplayName':'LastActionDescription','InputType':'text','ColumnWidth':'4','AllowEditing':'0', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>630</v>
       </c>
@@ -4112,19 +4310,15 @@
       <c r="H66" s="1">
         <v>1</v>
       </c>
-      <c r="K66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>{'AppearenceOrder':'630','RowNumber':'5','ColumnName':'AdditionalTrainerNotes','DBColumnName':'AdditionalTrainerNotes','ColumnDisplayName':'Additional Notes','InputType':'text','ColumnWidth':'4','AllowEditing':'1','Notes':'','OverrideValue':''},</v>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>{'AppearenceOrder':'630','RowNumber':'5','ColumnName':'AdditionalTrainerNotes','DBColumnName':'AdditionalTrainerNotes','ColumnDisplayName':'Additional Notes','InputType':'text','ColumnWidth':'4','AllowEditing':'1', 'DataType':'0' , 'Notes':'','OverrideValue':''},</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K66">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:K56">
     <sortCondition ref="B38"/>
   </sortState>

--- a/Django-site/mysite/entities/static/entities/Column Display Instructions.xlsx
+++ b/Django-site/mysite/entities/static/entities/Column Display Instructions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Trainer" sheetId="1" r:id="rId1"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
